--- a/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_13.11.2024_output.xlsx
+++ b/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_13.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pupse</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -498,18 +498,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>14.215</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.03500000000000014</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -517,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -528,7 +536,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,16 +545,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>134.99</v>
+        <v>14.138</v>
       </c>
       <c r="H3" t="n">
-        <v>135.45</v>
+        <v>14.226</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4599999999999795</v>
+        <v>0.08800000000000097</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.34</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>BSPB</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -566,7 +574,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -575,16 +583,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>135.41</v>
+        <v>347.84</v>
       </c>
       <c r="H4" t="n">
-        <v>135.66</v>
+        <v>350.62</v>
       </c>
       <c r="I4" t="n">
-        <v>0.25</v>
+        <v>-2.78000000000003</v>
       </c>
       <c r="J4" t="n">
-        <v>0.18</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="5">
@@ -593,16 +601,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>BSPB</t>
         </is>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -611,16 +621,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>135.91</v>
+        <v>349.91</v>
       </c>
       <c r="H5" t="n">
-        <v>136.39</v>
+        <v>350.6</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4799999999999898</v>
+        <v>0.6899999999999977</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.35</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -629,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -649,16 +659,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>7005</v>
+        <v>1233.4</v>
       </c>
       <c r="H6" t="n">
-        <v>7009.5</v>
+        <v>1228.8</v>
       </c>
       <c r="I6" t="n">
-        <v>-4.5</v>
+        <v>4.600000000000136</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.06</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="7">
@@ -667,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -687,16 +697,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>7025</v>
+        <v>1238.2</v>
       </c>
       <c r="H7" t="n">
-        <v>7025</v>
+        <v>1235</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3.200000000000045</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8">
@@ -705,7 +715,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -716,7 +726,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -725,16 +735,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>486.45</v>
+        <v>1223</v>
       </c>
       <c r="H8" t="n">
-        <v>487.7</v>
+        <v>1226.8</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.25</v>
+        <v>3.799999999999955</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.26</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="9">
@@ -743,7 +753,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -763,16 +773,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>490.35</v>
+        <v>134.99</v>
       </c>
       <c r="H9" t="n">
-        <v>489.45</v>
+        <v>135.45</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9000000000000341</v>
+        <v>-0.4599999999999795</v>
       </c>
       <c r="J9" t="n">
-        <v>0.18</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="10">
@@ -781,7 +791,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -801,16 +811,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>487.9</v>
+        <v>135.41</v>
       </c>
       <c r="H10" t="n">
-        <v>489.35</v>
+        <v>135.66</v>
       </c>
       <c r="I10" t="n">
-        <v>1.450000000000045</v>
+        <v>0.25</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="11">
@@ -819,13 +829,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>short</t>
@@ -837,16 +849,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>491.65</v>
+        <v>7005</v>
       </c>
       <c r="H11" t="n">
-        <v>493.35</v>
+        <v>7009.5</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.700000000000045</v>
+        <v>-4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.35</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="12">
@@ -855,7 +867,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -875,16 +887,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>931.2</v>
+        <v>7025</v>
       </c>
       <c r="H12" t="n">
-        <v>929.8</v>
+        <v>7025</v>
       </c>
       <c r="I12" t="n">
-        <v>1.400000000000091</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -893,13 +905,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>short</t>
@@ -911,16 +925,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>934.8</v>
+        <v>37.73</v>
       </c>
       <c r="H13" t="n">
-        <v>934.8</v>
+        <v>38.315</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-0.5850000000000009</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="14">
@@ -940,7 +954,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -949,16 +963,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>37.73</v>
+        <v>38.155</v>
       </c>
       <c r="H14" t="n">
-        <v>38.315</v>
+        <v>38.22</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.5850000000000009</v>
+        <v>0.06499999999999773</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.55</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="15">
@@ -967,7 +981,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -987,16 +1001,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>38.155</v>
+        <v>104.07</v>
       </c>
       <c r="H15" t="n">
-        <v>38.22</v>
+        <v>104.39</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06499999999999773</v>
+        <v>0.3200000000000074</v>
       </c>
       <c r="J15" t="n">
-        <v>0.17</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="16">
@@ -1005,13 +1019,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>short</t>
@@ -1023,16 +1039,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>38.375</v>
+        <v>104.67</v>
       </c>
       <c r="H16" t="n">
-        <v>38.405</v>
+        <v>105.52</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03000000000000114</v>
+        <v>-0.8499999999999943</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.08</v>
+        <v>-0.8099999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1041,7 +1057,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -1052,7 +1068,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1061,16 +1077,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1233.4</v>
+        <v>105.13</v>
       </c>
       <c r="H17" t="n">
-        <v>1228.8</v>
+        <v>105.31</v>
       </c>
       <c r="I17" t="n">
-        <v>4.600000000000136</v>
+        <v>0.1800000000000068</v>
       </c>
       <c r="J17" t="n">
-        <v>0.37</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="18">
@@ -1079,7 +1095,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -1099,16 +1115,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1238.2</v>
+        <v>2780.75</v>
       </c>
       <c r="H18" t="n">
-        <v>1235</v>
+        <v>2771.75</v>
       </c>
       <c r="I18" t="n">
-        <v>3.200000000000045</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="19">
@@ -1117,7 +1133,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1128,7 +1144,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1137,16 +1153,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1223</v>
+        <v>2781.9</v>
       </c>
       <c r="H19" t="n">
-        <v>1226.8</v>
+        <v>2783.9</v>
       </c>
       <c r="I19" t="n">
-        <v>3.799999999999955</v>
+        <v>-2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.31</v>
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -1155,16 +1171,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1173,16 +1191,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1232</v>
+        <v>2782.5</v>
       </c>
       <c r="H20" t="n">
-        <v>1233.2</v>
+        <v>2782.4</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.200000000000045</v>
+        <v>-0.09999999999990905</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21">
@@ -1191,7 +1209,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1211,13 +1229,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>80.89</v>
+        <v>931.2</v>
       </c>
       <c r="H21" t="n">
-        <v>80.77</v>
+        <v>929.8</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1200000000000045</v>
+        <v>1.400000000000091</v>
       </c>
       <c r="J21" t="n">
         <v>0.15</v>
@@ -1229,7 +1247,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -1249,16 +1267,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>81.23999999999999</v>
+        <v>486.45</v>
       </c>
       <c r="H22" t="n">
-        <v>81.05</v>
+        <v>487.7</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1899999999999977</v>
+        <v>-1.25</v>
       </c>
       <c r="J22" t="n">
-        <v>0.23</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="23">
@@ -1267,7 +1285,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -1278,7 +1296,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1287,16 +1305,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>80.93000000000001</v>
+        <v>490.35</v>
       </c>
       <c r="H23" t="n">
-        <v>80.5</v>
+        <v>489.45</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.4300000000000068</v>
+        <v>0.9000000000000341</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.53</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="24">
@@ -1305,16 +1323,18 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1323,16 +1343,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>80.59999999999999</v>
+        <v>487.9</v>
       </c>
       <c r="H24" t="n">
-        <v>80.79000000000001</v>
+        <v>489.35</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.1900000000000119</v>
+        <v>1.450000000000045</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.24</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25">
@@ -1341,7 +1361,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="C25" t="b">
@@ -1361,16 +1381,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>14.25</v>
+        <v>595.3</v>
       </c>
       <c r="H25" t="n">
-        <v>14.215</v>
+        <v>595.3</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03500000000000014</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1379,7 +1399,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="C26" t="b">
@@ -1399,16 +1419,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>14.138</v>
+        <v>590.9</v>
       </c>
       <c r="H26" t="n">
-        <v>14.226</v>
+        <v>589.9</v>
       </c>
       <c r="I26" t="n">
-        <v>0.08800000000000097</v>
+        <v>-1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.62</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="27">
@@ -1417,13 +1437,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>short</t>
@@ -1435,16 +1457,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>14.289</v>
+        <v>80.89</v>
       </c>
       <c r="H27" t="n">
-        <v>14.369</v>
+        <v>80.77</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.08000000000000007</v>
+        <v>0.1200000000000045</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.5599999999999999</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="28">
@@ -1453,7 +1475,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C28" t="b">
@@ -1464,7 +1486,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1473,16 +1495,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>104.07</v>
+        <v>81.23999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>104.39</v>
+        <v>81.05</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3200000000000074</v>
+        <v>0.1899999999999977</v>
       </c>
       <c r="J28" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="29">
@@ -1491,7 +1513,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C29" t="b">
@@ -1502,7 +1524,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1511,16 +1533,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>104.67</v>
+        <v>80.93000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>105.52</v>
+        <v>80.5</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.8499999999999943</v>
+        <v>-0.4300000000000068</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.8099999999999999</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="30">
@@ -1529,18 +1551,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1549,16 +1569,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>105.13</v>
+        <v>14.289</v>
       </c>
       <c r="H30" t="n">
-        <v>105.31</v>
+        <v>14.369</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1800000000000068</v>
+        <v>-0.08000000000000007</v>
       </c>
       <c r="J30" t="n">
-        <v>0.17</v>
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -1567,7 +1587,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C31" t="b">
@@ -1585,16 +1605,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>105.7</v>
+        <v>1232</v>
       </c>
       <c r="H31" t="n">
-        <v>106.15</v>
+        <v>1233.2</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.4500000000000028</v>
+        <v>-1.200000000000045</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.43</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="32">
@@ -1603,15 +1623,13 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>short</t>
@@ -1623,16 +1641,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>347.84</v>
+        <v>135.91</v>
       </c>
       <c r="H32" t="n">
-        <v>350.62</v>
+        <v>136.39</v>
       </c>
       <c r="I32" t="n">
-        <v>-2.78000000000003</v>
+        <v>-0.4799999999999898</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.8</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="33">
@@ -1641,18 +1659,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1661,16 +1677,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>349.91</v>
+        <v>38.375</v>
       </c>
       <c r="H33" t="n">
-        <v>350.6</v>
+        <v>38.405</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6899999999999977</v>
+        <v>-0.03000000000000114</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="34">
@@ -1679,15 +1695,13 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>short</t>
@@ -1699,16 +1713,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2780.75</v>
+        <v>105.7</v>
       </c>
       <c r="H34" t="n">
-        <v>2771.75</v>
+        <v>106.15</v>
       </c>
       <c r="I34" t="n">
-        <v>9</v>
+        <v>-0.4500000000000028</v>
       </c>
       <c r="J34" t="n">
-        <v>0.32</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="35">
@@ -1717,15 +1731,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>short</t>
@@ -1737,16 +1749,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2781.9</v>
+        <v>934.8</v>
       </c>
       <c r="H35" t="n">
-        <v>2783.9</v>
+        <v>934.8</v>
       </c>
       <c r="I35" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.06999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1755,18 +1767,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1775,16 +1785,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2782.5</v>
+        <v>491.65</v>
       </c>
       <c r="H36" t="n">
-        <v>2782.4</v>
+        <v>493.35</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.09999999999990905</v>
+        <v>-1.700000000000045</v>
       </c>
       <c r="J36" t="n">
-        <v>-0</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="37">
@@ -1799,9 +1809,7 @@
       <c r="C37" t="b">
         <v>1</v>
       </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>short</t>
@@ -1813,16 +1821,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>595.3</v>
+        <v>595.1</v>
       </c>
       <c r="H37" t="n">
-        <v>595.3</v>
+        <v>594.6</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="38">
@@ -1831,18 +1839,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TATN</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C38" t="b">
         <v>1</v>
       </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1851,52 +1857,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>590.9</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>589.9</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>-1</v>
+        <v>-0.1900000000000119</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>TATN</t>
-        </is>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>595.1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>594.6</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.08</v>
+        <v>-0.24</v>
       </c>
     </row>
   </sheetData>
@@ -1910,7 +1880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2214,24 +2184,6 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>pupse</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
